--- a/resource/建筑/建筑属性表.xlsx
+++ b/resource/建筑/建筑属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="320" windowWidth="10840" windowHeight="9320"/>
+    <workbookView xWindow="1340" yWindow="200" windowWidth="24860" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Build" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,9 @@
   <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/resource/建筑/建筑属性表.xlsx
+++ b/resource/建筑/建筑属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="200" windowWidth="24860" windowHeight="13000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Build" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,9 @@
   <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/resource/建筑/建筑属性表.xlsx
+++ b/resource/建筑/建筑属性表.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
   <si>
     <t>建筑名称</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#建筑名称_市政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#建筑名称_市政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#建筑名称_市政</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +1000,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1139,8 +1151,8 @@
       <c r="A4" s="2">
         <v>1100101</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
+      <c r="B4" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1175,8 +1187,8 @@
       <c r="A5" s="2">
         <v>1100102</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1211,8 +1223,8 @@
       <c r="A6" s="2">
         <v>1100103</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+      <c r="B6" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
